--- a/static/report/Invoice.xlsx
+++ b/static/report/Invoice.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hossein\Repo\Phoenix5\static\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hossein\Repo\Phoenix5\public_html\static\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,8 +14,31 @@
   <sheets>
     <sheet name="Invoice" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>ردیف</t>
+  </si>
+  <si>
+    <t>شرح</t>
+  </si>
+  <si>
+    <t>تعداد</t>
+  </si>
+  <si>
+    <t>واحد</t>
+  </si>
+  <si>
+    <t>قیمت واحد</t>
+  </si>
+  <si>
+    <t>جمع</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -79,11 +102,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -365,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F3"/>
+  <dimension ref="A2:F23"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75"/>
@@ -383,9 +408,153 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/report/Invoice.xlsx
+++ b/static/report/Invoice.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hossein\Repo\Phoenix5\public_html\static\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hossein\Repo\Phoenix5\static\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -102,13 +102,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -390,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F23"/>
+  <dimension ref="A2:F3"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -431,130 +430,6 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="3:6">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="3:6">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="3:6">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/report/Invoice.xlsx
+++ b/static/report/Invoice.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hossein\Repo\Phoenix5\static\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hossein\Repo\Phoenix5\static\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Invoice" sheetId="2" r:id="rId1"/>
+    <sheet name="Invoice" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -47,7 +47,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,20 +69,32 @@
       <charset val="178"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="A  Mitra_1 (MRT)"/>
+      <charset val="178"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="B Koodak"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -97,17 +109,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -389,47 +434,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F3"/>
+  <dimension ref="A2:F25"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="74.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="2" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="18" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="3:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="3:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="3:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="3:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="3:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="3:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="3:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="3:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="3:6" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
